--- a/data/trans_dic/P33B_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R2-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.2623277886069363</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3900977999852169</v>
+        <v>0.390097799985217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3372928583801344</v>
+        <v>0.3372928583801343</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2306706107989159</v>
+        <v>0.2282662921979899</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3631093002924305</v>
+        <v>0.3644095974615504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.317209983611027</v>
+        <v>0.3164835025809671</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3005327481164366</v>
+        <v>0.2991198664302944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4171714217678629</v>
+        <v>0.4171485683482407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.362640609260632</v>
+        <v>0.3578567414057404</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1042553027432607</v>
+        <v>0.1032834195392309</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.176105231921905</v>
+        <v>0.1746802683793487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1432473694956261</v>
+        <v>0.1430633807022288</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1315205834328982</v>
+        <v>0.131143653322514</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2064394019368076</v>
+        <v>0.2055547288083518</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1642743560759933</v>
+        <v>0.1644851764413582</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09121296984289208</v>
+        <v>0.09126031164286985</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1188547460493611</v>
+        <v>0.1214365771098014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1114662110038956</v>
+        <v>0.1127120089841185</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1403687607949207</v>
+        <v>0.1426521923842566</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1656134591133631</v>
+        <v>0.1670693543159555</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.144414982587271</v>
+        <v>0.1467096421277237</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.139993388918494</v>
+        <v>0.1399933889184939</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.2250922800437283</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1286868279788759</v>
+        <v>0.1291411078987846</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2126982026732717</v>
+        <v>0.213039529349938</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1756605405871834</v>
+        <v>0.1757504041927059</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.151535926163149</v>
+        <v>0.1524328066630489</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2366721096153335</v>
+        <v>0.2364558881244587</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1925247726760599</v>
+        <v>0.191668268694807</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>133450</v>
+        <v>132059</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>298227</v>
+        <v>299295</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>444045</v>
+        <v>443028</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>173867</v>
+        <v>173050</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>342629</v>
+        <v>342610</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>507641</v>
+        <v>500944</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>232436</v>
+        <v>230269</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>382393</v>
+        <v>379299</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>630414</v>
+        <v>629604</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>293223</v>
+        <v>292383</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>448261</v>
+        <v>446340</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>722951</v>
+        <v>723879</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>64906</v>
+        <v>64940</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>87344</v>
+        <v>89241</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>161232</v>
+        <v>163034</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>99885</v>
+        <v>101509</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>121706</v>
+        <v>122775</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>208891</v>
+        <v>212210</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>452926</v>
+        <v>454525</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>792851</v>
+        <v>794123</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1273045</v>
+        <v>1273696</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>533346</v>
+        <v>536503</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>882215</v>
+        <v>881409</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1395263</v>
+        <v>1389056</v>
       </c>
     </row>
     <row r="20">
